--- a/data/trans_orig/P21D4_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>222191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>206987</v>
+        <v>207734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>231682</v>
+        <v>231275</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9090914137603133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8468832235427761</v>
+        <v>0.8499418751177933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9479219733873079</v>
+        <v>0.9462597288762885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>285</v>
@@ -762,19 +762,19 @@
         <v>213671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>204248</v>
+        <v>204494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>220632</v>
+        <v>221041</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9099195401797692</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8697903458334683</v>
+        <v>0.8708376823873261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9395637433333669</v>
+        <v>0.9413029206934406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>511</v>
@@ -783,19 +783,19 @@
         <v>435862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>419322</v>
+        <v>419128</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>448316</v>
+        <v>448888</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9094971944960635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8749832508162337</v>
+        <v>0.8745785321180831</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9354853924264099</v>
+        <v>0.936678876840733</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17420</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9768</v>
+        <v>9900</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33323</v>
+        <v>32687</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07127476730070907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0399666011261632</v>
+        <v>0.04050593641876066</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1363399619497943</v>
+        <v>0.1337374354730349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -833,19 +833,19 @@
         <v>20450</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13359</v>
+        <v>13566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29270</v>
+        <v>29825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0870862662506984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05688779089291279</v>
+        <v>0.05777044332471037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1246464889506299</v>
+        <v>0.1270080098860191</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -854,19 +854,19 @@
         <v>37870</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26733</v>
+        <v>26492</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54090</v>
+        <v>53845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07902237868769309</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05578258164499846</v>
+        <v>0.05527992009670721</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1128673630072473</v>
+        <v>0.1123572690901238</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4799</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1028</v>
+        <v>1694</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11826</v>
+        <v>12796</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01963381893897749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004205087781915975</v>
+        <v>0.006930367261712273</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0483854862896995</v>
+        <v>0.05235496648022748</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4252</v>
+        <v>3845</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002994193569532456</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01810809366732459</v>
+        <v>0.01637515021643785</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -925,19 +925,19 @@
         <v>5502</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1943</v>
+        <v>1801</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12660</v>
+        <v>11897</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01148042681624346</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00405447449276073</v>
+        <v>0.003758586502646057</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0264168491681105</v>
+        <v>0.02482552003873328</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1076,19 @@
         <v>177318</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>165638</v>
+        <v>165460</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>184875</v>
+        <v>184373</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9004242561698511</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8411161419758492</v>
+        <v>0.8402098869073341</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9387990452003878</v>
+        <v>0.9362516286789012</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>246</v>
@@ -1097,19 +1097,19 @@
         <v>179564</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>170460</v>
+        <v>169873</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>185910</v>
+        <v>185475</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9132437829096158</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8669416586916762</v>
+        <v>0.8639592111470975</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9455199579629689</v>
+        <v>0.9433062034126691</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>422</v>
@@ -1118,19 +1118,19 @@
         <v>356882</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>342443</v>
+        <v>343696</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>367523</v>
+        <v>368003</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.9068290491796769</v>
+        <v>0.9068290491796767</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8701417000512309</v>
+        <v>0.873324401599162</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9338693253692796</v>
+        <v>0.9350868864040852</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>15144</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7943</v>
+        <v>8550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26215</v>
+        <v>25849</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07690135062237516</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04033670798087802</v>
+        <v>0.043418747996571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1331196372039056</v>
+        <v>0.1312595327318727</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1168,19 +1168,19 @@
         <v>11984</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7408</v>
+        <v>6759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19571</v>
+        <v>18436</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06095132349860288</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03767425077319345</v>
+        <v>0.03437763230395992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0995368558790531</v>
+        <v>0.093762581098867</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1189,19 +1189,19 @@
         <v>27128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17842</v>
+        <v>18085</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39636</v>
+        <v>40179</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06893252117159761</v>
+        <v>0.06893252117159762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04533724388826672</v>
+        <v>0.04595301114946201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1007141918847363</v>
+        <v>0.1020943864424222</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>3879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>938</v>
+        <v>1082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9269</v>
+        <v>9812</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01969975697426751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004762021262965625</v>
+        <v>0.005495118992917351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04706572801175965</v>
+        <v>0.0498259029389822</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1239,19 +1239,19 @@
         <v>5074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1386</v>
+        <v>1414</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14700</v>
+        <v>14469</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.02580489359178137</v>
+        <v>0.02580489359178136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007049988344298052</v>
+        <v>0.007193255293120445</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07476237089911426</v>
+        <v>0.07358667463662874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1260,19 +1260,19 @@
         <v>8953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4158</v>
+        <v>4446</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16929</v>
+        <v>18171</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02274995821224249</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01056467220978194</v>
+        <v>0.0112981169999369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04301645871282809</v>
+        <v>0.04617116025921666</v>
       </c>
     </row>
     <row r="12">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3654</v>
+        <v>3015</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002974636233506261</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01855318961844911</v>
+        <v>0.01531102452410184</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3360</v>
+        <v>2990</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001488471436483117</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008537276092029759</v>
+        <v>0.007598173041347203</v>
       </c>
     </row>
     <row r="13">
@@ -1427,19 +1427,19 @@
         <v>177718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168431</v>
+        <v>169098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182886</v>
+        <v>183059</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9411166351672302</v>
+        <v>0.9411166351672303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8919375043611399</v>
+        <v>0.895468217380212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9684856218507182</v>
+        <v>0.9694038605907714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -1448,19 +1448,19 @@
         <v>81746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77742</v>
+        <v>77150</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84445</v>
+        <v>84642</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9437186927754939</v>
+        <v>0.9437186927754938</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8974929119798395</v>
+        <v>0.8906637795536504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9748830463707808</v>
+        <v>0.9771557684185987</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>300</v>
@@ -1469,19 +1469,19 @@
         <v>259463</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249622</v>
+        <v>250035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>265720</v>
+        <v>266041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9419348829668011</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9062057392328846</v>
+        <v>0.9077062618097094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9646495069312678</v>
+        <v>0.9658128981082914</v>
       </c>
     </row>
     <row r="15">
@@ -1498,19 +1498,19 @@
         <v>10125</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5106</v>
+        <v>5146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19955</v>
+        <v>18742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05361568560654824</v>
+        <v>0.05361568560654825</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02703856080375846</v>
+        <v>0.02724969415596621</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1056742913247432</v>
+        <v>0.09925224861970605</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -1519,19 +1519,19 @@
         <v>4443</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8240</v>
+        <v>9073</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05129564189340481</v>
+        <v>0.0512956418934048</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02002605200126811</v>
+        <v>0.02010882967390797</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09512736667221752</v>
+        <v>0.1047474144460675</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -1540,19 +1540,19 @@
         <v>14568</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8771</v>
+        <v>8005</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24782</v>
+        <v>23669</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05288612041277292</v>
+        <v>0.05288612041277291</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03184288190206481</v>
+        <v>0.02906233382258724</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08996809597108361</v>
+        <v>0.08592423545660305</v>
       </c>
     </row>
     <row r="16">
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2351</v>
+        <v>3116</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004985665331101202</v>
+        <v>0.004985665331101201</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0271394994129483</v>
+        <v>0.03596763422610327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2375</v>
+        <v>2662</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001567801448213006</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008621529251986743</v>
+        <v>0.009665652414910152</v>
       </c>
     </row>
     <row r="17">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005267679226221417</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003611195172213047</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>484438</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>469784</v>
+        <v>470419</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>493946</v>
+        <v>494379</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9464725419208324</v>
+        <v>0.9464725419208323</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9178420151735045</v>
+        <v>0.9190828970637719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9650498657616036</v>
+        <v>0.9658952773138757</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>493</v>
@@ -1791,19 +1791,19 @@
         <v>353856</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>342709</v>
+        <v>342333</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>362353</v>
+        <v>362319</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.915147234774905</v>
+        <v>0.9151472347749051</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8863173086038936</v>
+        <v>0.8853458063619347</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9371217634617918</v>
+        <v>0.9370333961163121</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>964</v>
@@ -1812,19 +1812,19 @@
         <v>838294</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>822382</v>
+        <v>822481</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>851191</v>
+        <v>853069</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9329918250223322</v>
+        <v>0.932991825022332</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9152827751757359</v>
+        <v>0.9153921527607396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9473453093865959</v>
+        <v>0.9494354281931336</v>
       </c>
     </row>
     <row r="20">
@@ -1841,19 +1841,19 @@
         <v>22526</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13752</v>
+        <v>13574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37830</v>
+        <v>36601</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04400936719873187</v>
+        <v>0.04400936719873188</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02686711286339562</v>
+        <v>0.02651983639382179</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07391083391891747</v>
+        <v>0.07151019544967308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1862,19 +1862,19 @@
         <v>26445</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18874</v>
+        <v>18684</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36003</v>
+        <v>38262</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0683933148121713</v>
+        <v>0.06839331481217131</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04881112767319099</v>
+        <v>0.04832180843850296</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09311099814982034</v>
+        <v>0.09895408942512005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -1883,19 +1883,19 @@
         <v>48971</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36910</v>
+        <v>36466</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>64768</v>
+        <v>64204</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.05450289861450844</v>
+        <v>0.05450289861450843</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04107927432783184</v>
+        <v>0.04058496248626349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07208439200219025</v>
+        <v>0.07145699869279075</v>
       </c>
     </row>
     <row r="21">
@@ -1912,19 +1912,19 @@
         <v>3067</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8290</v>
+        <v>8717</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005992996150165737</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001483764713571243</v>
+        <v>0.001458040241722128</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01619639608631836</v>
+        <v>0.01703017869515279</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5947</v>
+        <v>7048</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.004612775711067455</v>
+        <v>0.004612775711067456</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01537925005602659</v>
+        <v>0.01822826841989268</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1954,19 +1954,19 @@
         <v>4851</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1811</v>
+        <v>1794</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10359</v>
+        <v>12082</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.005399023969451566</v>
+        <v>0.005399023969451565</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002016003586290927</v>
+        <v>0.001996135855597094</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0115290258878688</v>
+        <v>0.0134468532125227</v>
       </c>
     </row>
     <row r="22">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6944</v>
+        <v>7303</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003525094730269938</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01356726201126724</v>
+        <v>0.01426887462752819</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2004,19 +2004,19 @@
         <v>4581</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1865</v>
+        <v>1890</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8973</v>
+        <v>8992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01184667470185617</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004823534066568287</v>
+        <v>0.004887603215637898</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02320691032163413</v>
+        <v>0.02325415310964853</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2025,19 +2025,19 @@
         <v>6385</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3009</v>
+        <v>3254</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12318</v>
+        <v>12491</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007106252393707847</v>
+        <v>0.007106252393707846</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00334895695677637</v>
+        <v>0.003621111780461118</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01370999357005555</v>
+        <v>0.01390151646862925</v>
       </c>
     </row>
     <row r="23">
@@ -2129,19 +2129,19 @@
         <v>255721</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>245545</v>
+        <v>247481</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>261002</v>
+        <v>261181</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9613320737591914</v>
+        <v>0.9613320737591913</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9230781220228097</v>
+        <v>0.9303570036263914</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9811851299803764</v>
+        <v>0.9818560979544567</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>524</v>
@@ -2150,19 +2150,19 @@
         <v>353710</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>343173</v>
+        <v>344304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>361189</v>
+        <v>362538</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.911903730476826</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8847369835137535</v>
+        <v>0.8876542005233424</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9311849101237566</v>
+        <v>0.9346639925788816</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>761</v>
@@ -2171,19 +2171,19 @@
         <v>609431</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>596609</v>
+        <v>596113</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>619596</v>
+        <v>617914</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9320116087384038</v>
+        <v>0.9320116087384041</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9124031170478615</v>
+        <v>0.9116437834398234</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9475561007029876</v>
+        <v>0.9449837080552419</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>9758</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4624</v>
+        <v>4353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19998</v>
+        <v>17822</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03668143173418779</v>
+        <v>0.0366814317341878</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01738155881239392</v>
+        <v>0.01636386357363789</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07518009288240363</v>
+        <v>0.06699753093937488</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -2221,19 +2221,19 @@
         <v>24337</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17625</v>
+        <v>17304</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32742</v>
+        <v>32719</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.062744615139934</v>
+        <v>0.06274461513993398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04543963535124862</v>
+        <v>0.04461093881932205</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08441289671686261</v>
+        <v>0.08435416432467811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -2242,19 +2242,19 @@
         <v>34095</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25127</v>
+        <v>26159</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44924</v>
+        <v>45877</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05214188633637929</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0384274502230878</v>
+        <v>0.0400057584720931</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06870282451454514</v>
+        <v>0.07016086496708786</v>
       </c>
     </row>
     <row r="26">
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2192</v>
+        <v>2729</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.001986494506620907</v>
+        <v>0.001986494506620908</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008240070226331374</v>
+        <v>0.01025757466134164</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2292,19 +2292,19 @@
         <v>4591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1906</v>
+        <v>1951</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9684</v>
+        <v>9566</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01183618681037282</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004913563270093749</v>
+        <v>0.005029689514367664</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02496514351835254</v>
+        <v>0.02466279299101781</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2313,19 +2313,19 @@
         <v>5119</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2385</v>
+        <v>2367</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10572</v>
+        <v>9857</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007829246650019396</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003647629515783277</v>
+        <v>0.003619844153396691</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01616766433514894</v>
+        <v>0.01507518574709344</v>
       </c>
     </row>
     <row r="27">
@@ -2355,19 +2355,19 @@
         <v>5242</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2344</v>
+        <v>2494</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9892</v>
+        <v>10234</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01351546757286717</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.006043706152798854</v>
+        <v>0.006430737502676752</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02550202261246668</v>
+        <v>0.02638502484205428</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -2376,19 +2376,19 @@
         <v>5242</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2111</v>
+        <v>2038</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9670</v>
+        <v>10167</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.008017258275197321</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.003227856868905454</v>
+        <v>0.003116668906973823</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01478894952289971</v>
+        <v>0.01554861617253356</v>
       </c>
     </row>
     <row r="28">
@@ -2480,16 +2480,16 @@
         <v>114637</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>106410</v>
+        <v>107513</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>117437</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9761566484007793</v>
+        <v>0.9761566484007792</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9060988130686701</v>
+        <v>0.9154967627679768</v>
       </c>
       <c r="I29" s="6" t="n">
         <v>1</v>
@@ -2501,19 +2501,19 @@
         <v>323005</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>310351</v>
+        <v>308602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>332724</v>
+        <v>331937</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.911155885870137</v>
+        <v>0.9111558858701367</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8754599301279662</v>
+        <v>0.8705264132387251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9385723178782257</v>
+        <v>0.9363520581336964</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>501</v>
@@ -2522,19 +2522,19 @@
         <v>437642</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>423375</v>
+        <v>422763</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>448106</v>
+        <v>448113</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9273307336159128</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8971015644247544</v>
+        <v>0.8958028680879415</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9495044068246858</v>
+        <v>0.9495186103271137</v>
       </c>
     </row>
     <row r="30">
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11027</v>
+        <v>9924</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02384335159922069</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09390118693132948</v>
+        <v>0.0845032372320232</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>27</v>
@@ -2572,19 +2572,19 @@
         <v>25096</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16269</v>
+        <v>17137</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37985</v>
+        <v>39295</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.07079352259377736</v>
+        <v>0.07079352259377734</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04589215887151698</v>
+        <v>0.04834126590393173</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1071508139083061</v>
+        <v>0.1108467799304476</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>29</v>
@@ -2593,19 +2593,19 @@
         <v>27896</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18693</v>
+        <v>18032</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42193</v>
+        <v>43695</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05911040015168122</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03960948181168689</v>
+        <v>0.03820936507456885</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08940366717120064</v>
+        <v>0.09258750123581826</v>
       </c>
     </row>
     <row r="31">
@@ -2635,19 +2635,19 @@
         <v>4306</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1592</v>
+        <v>1567</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9526</v>
+        <v>8783</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.01214794090953237</v>
+        <v>0.01214794090953236</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004492077751737277</v>
+        <v>0.004421117224504893</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02687286153269355</v>
+        <v>0.02477513804195605</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -2656,19 +2656,19 @@
         <v>4306</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1851</v>
+        <v>1694</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9006</v>
+        <v>9243</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009125036454469361</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003921158230704747</v>
+        <v>0.003588507792530077</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01908216623817001</v>
+        <v>0.01958503886552301</v>
       </c>
     </row>
     <row r="32">
@@ -2698,19 +2698,19 @@
         <v>2092</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5499</v>
+        <v>4904</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.005902650626553585</v>
+        <v>0.005902650626553583</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001725292200695533</v>
+        <v>0.00171284745638716</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01551068515220049</v>
+        <v>0.01383490439340343</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2719,19 +2719,19 @@
         <v>2092</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5059</v>
+        <v>5010</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.004433829777936522</v>
+        <v>0.004433829777936521</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001288856463062151</v>
+        <v>0.001222156266378608</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0107193556308187</v>
+        <v>0.01061659246472468</v>
       </c>
     </row>
     <row r="33">
@@ -2823,19 +2823,19 @@
         <v>1432023</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1407045</v>
+        <v>1408667</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1451705</v>
+        <v>1451956</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9387521407005641</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9223780742169391</v>
+        <v>0.9234412576274986</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9516546282261252</v>
+        <v>0.9518190404796364</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2116</v>
@@ -2844,19 +2844,19 @@
         <v>1505552</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1485345</v>
+        <v>1481629</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1525715</v>
+        <v>1525198</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9140544268030711</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9017866742116184</v>
+        <v>0.8995301880064092</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.926295665992784</v>
+        <v>0.9259819680172138</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3459</v>
@@ -2865,19 +2865,19 @@
         <v>2937574</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2905086</v>
+        <v>2905587</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2965303</v>
+        <v>2966424</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9259297372739848</v>
+        <v>0.9259297372739845</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9156895078886333</v>
+        <v>0.9158474651824323</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9346699663789434</v>
+        <v>0.9350232181917708</v>
       </c>
     </row>
     <row r="35">
@@ -2894,19 +2894,19 @@
         <v>77772</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>59437</v>
+        <v>59301</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>100856</v>
+        <v>97927</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05098287874344273</v>
+        <v>0.05098287874344274</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03896328246192179</v>
+        <v>0.03887462561303694</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06611546928920321</v>
+        <v>0.06419517556508667</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>156</v>
@@ -2915,19 +2915,19 @@
         <v>112757</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>95586</v>
+        <v>94403</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>131230</v>
+        <v>133999</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.06845714022339962</v>
+        <v>0.06845714022339963</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05803231222455067</v>
+        <v>0.05731426816847766</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07967280059264613</v>
+        <v>0.08135402632019373</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>220</v>
@@ -2936,19 +2936,19 @@
         <v>190529</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>163998</v>
+        <v>162091</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>218753</v>
+        <v>220318</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06005505567477758</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05169262080873244</v>
+        <v>0.05109147043942515</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06895139099021601</v>
+        <v>0.06944466143640921</v>
       </c>
     </row>
     <row r="36">
@@ -2965,19 +2965,19 @@
         <v>12274</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5872</v>
+        <v>6853</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20364</v>
+        <v>22226</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008046108087599136</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003849221153483704</v>
+        <v>0.004492419242472661</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01334928265063314</v>
+        <v>0.01457001446549314</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>22</v>
@@ -2986,19 +2986,19 @@
         <v>16890</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10418</v>
+        <v>10263</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>26867</v>
+        <v>27676</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01025421127118061</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006325106951080755</v>
+        <v>0.0062306498055953</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01631127630297656</v>
+        <v>0.01680242774123435</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>34</v>
@@ -3007,19 +3007,19 @@
         <v>29164</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>19899</v>
+        <v>20635</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42466</v>
+        <v>43064</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.009192497180326862</v>
+        <v>0.009192497180326864</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006272337118730982</v>
+        <v>0.006504297124354358</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01338550096301144</v>
+        <v>0.01357388454023721</v>
       </c>
     </row>
     <row r="37">
@@ -3036,19 +3036,19 @@
         <v>3385</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1136</v>
+        <v>1005</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9468</v>
+        <v>8105</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002218872468394059</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0007444555941837388</v>
+        <v>0.0006588425457248004</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.006206364299805237</v>
+        <v>0.005313311995393756</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -3057,19 +3057,19 @@
         <v>11916</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7165</v>
+        <v>7659</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18354</v>
+        <v>19061</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.007234221702348605</v>
+        <v>0.007234221702348606</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.004350234605200268</v>
+        <v>0.00464965949366</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01114342243496137</v>
+        <v>0.01157206198954006</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -3078,19 +3078,19 @@
         <v>15300</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10115</v>
+        <v>9973</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>23260</v>
+        <v>23189</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.00482270987091086</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.003188275855571152</v>
+        <v>0.003143646980861841</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.007331647956174637</v>
+        <v>0.007309317039484326</v>
       </c>
     </row>
     <row r="38">
